--- a/teaching/traditional_assets/database/data/romania/romania_household_products.xlsx
+++ b/teaching/traditional_assets/database/data/romania/romania_household_products.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0383</v>
+        <v>-0.0815</v>
       </c>
       <c r="G2">
-        <v>-0.4536423841059603</v>
+        <v>-0.3610619469026549</v>
       </c>
       <c r="H2">
-        <v>-0.4536423841059603</v>
+        <v>-0.3610619469026549</v>
       </c>
       <c r="I2">
-        <v>-0.4536423841059603</v>
+        <v>-0.3008849557522124</v>
       </c>
       <c r="J2">
-        <v>-0.4536423841059603</v>
+        <v>-0.3008849557522124</v>
       </c>
       <c r="K2">
-        <v>-2.75</v>
+        <v>-1.7</v>
       </c>
       <c r="L2">
-        <v>-0.4552980132450331</v>
+        <v>-0.3008849557522124</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.047</v>
+        <v>0.083</v>
       </c>
       <c r="V2">
-        <v>0.03949579831932773</v>
+        <v>0.1194244604316547</v>
       </c>
       <c r="W2">
-        <v>-2750</v>
+        <v>0.6439393939393939</v>
       </c>
       <c r="X2">
-        <v>0.09026499870930568</v>
+        <v>0.2321979651145056</v>
       </c>
       <c r="Y2">
-        <v>-2750.090264998709</v>
+        <v>0.4117414288248883</v>
       </c>
       <c r="Z2">
-        <v>0.6135093956323008</v>
+        <v>-2.10271678451805</v>
       </c>
       <c r="AA2">
-        <v>-0.2783138649060437</v>
+        <v>0.6326758466691477</v>
       </c>
       <c r="AB2">
-        <v>0.09026499870930568</v>
+        <v>0.08368386324973645</v>
       </c>
       <c r="AC2">
-        <v>-0.3685788636153494</v>
+        <v>0.5489919834194112</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AG2">
-        <v>-0.047</v>
+        <v>2.177</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.7648054145516074</v>
       </c>
       <c r="AI2">
-        <v>-0</v>
+        <v>-1.018018018018018</v>
       </c>
       <c r="AJ2">
-        <v>-0.04111986001749781</v>
+        <v>0.758008356545961</v>
       </c>
       <c r="AK2">
-        <v>0.0174916263490882</v>
+        <v>-0.9452887537993916</v>
       </c>
       <c r="AL2">
-        <v>0.107</v>
+        <v>0.039</v>
       </c>
       <c r="AM2">
-        <v>0.066</v>
+        <v>-0.019</v>
       </c>
       <c r="AN2">
-        <v>-0</v>
+        <v>-1.614285714285714</v>
       </c>
       <c r="AO2">
-        <v>-25.60747663551402</v>
+        <v>-43.58974358974359</v>
       </c>
       <c r="AP2">
-        <v>0.01934156378600823</v>
+        <v>-1.555</v>
       </c>
       <c r="AQ2">
-        <v>-41.51515151515152</v>
+        <v>89.4736842105263</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0383</v>
+        <v>-0.0815</v>
       </c>
       <c r="G3">
-        <v>-0.4536423841059603</v>
+        <v>-0.3610619469026549</v>
       </c>
       <c r="H3">
-        <v>-0.4536423841059603</v>
+        <v>-0.3610619469026549</v>
       </c>
       <c r="I3">
-        <v>-0.4536423841059603</v>
+        <v>-0.3008849557522124</v>
       </c>
       <c r="J3">
-        <v>-0.4536423841059603</v>
+        <v>-0.3008849557522124</v>
       </c>
       <c r="K3">
-        <v>-2.75</v>
+        <v>-1.7</v>
       </c>
       <c r="L3">
-        <v>-0.4552980132450331</v>
+        <v>-0.3008849557522124</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.047</v>
+        <v>0.083</v>
       </c>
       <c r="V3">
-        <v>0.03949579831932773</v>
+        <v>0.1194244604316547</v>
       </c>
       <c r="W3">
-        <v>-2750</v>
+        <v>0.6439393939393939</v>
       </c>
       <c r="X3">
-        <v>0.09026499870930568</v>
+        <v>0.2321979651145056</v>
       </c>
       <c r="Y3">
-        <v>-2750.090264998709</v>
+        <v>0.4117414288248883</v>
       </c>
       <c r="Z3">
-        <v>0.6135093956323008</v>
+        <v>-2.10271678451805</v>
       </c>
       <c r="AA3">
-        <v>-0.2783138649060437</v>
+        <v>0.6326758466691477</v>
       </c>
       <c r="AB3">
-        <v>0.09026499870930568</v>
+        <v>0.08368386324973645</v>
       </c>
       <c r="AC3">
-        <v>-0.3685788636153494</v>
+        <v>0.5489919834194112</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AG3">
-        <v>-0.047</v>
+        <v>2.177</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.7648054145516074</v>
       </c>
       <c r="AI3">
-        <v>-0</v>
+        <v>-1.018018018018018</v>
       </c>
       <c r="AJ3">
-        <v>-0.04111986001749781</v>
+        <v>0.758008356545961</v>
       </c>
       <c r="AK3">
-        <v>0.0174916263490882</v>
+        <v>-0.9452887537993916</v>
       </c>
       <c r="AL3">
-        <v>0.107</v>
+        <v>0.039</v>
       </c>
       <c r="AM3">
-        <v>0.066</v>
+        <v>-0.019</v>
       </c>
       <c r="AN3">
-        <v>-0</v>
+        <v>-1.614285714285714</v>
       </c>
       <c r="AO3">
-        <v>-25.60747663551402</v>
+        <v>-43.58974358974359</v>
       </c>
       <c r="AP3">
-        <v>0.01934156378600823</v>
+        <v>-1.555</v>
       </c>
       <c r="AQ3">
-        <v>-41.51515151515152</v>
+        <v>89.4736842105263</v>
       </c>
     </row>
   </sheetData>
